--- a/data/trans_orig/COM_FRUTA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/COM_FRUTA-Estudios-trans_orig.xlsx
@@ -965,97 +965,97 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>344</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,38%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>324</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>0,25%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T6" s="2" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="U6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1647,97 +1647,97 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>335</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,07%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>335</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>0,08%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T12" s="2" t="inlineStr">
-        <is>
-          <t>335</t>
-        </is>
-      </c>
-      <c r="U12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2329,97 +2329,97 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>326</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>0,21%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K18" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>317</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O18" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P18" s="2" t="inlineStr">
-        <is>
-          <t>0,16%</t>
-        </is>
-      </c>
-      <c r="Q18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T18" s="2" t="inlineStr">
-        <is>
-          <t>321</t>
-        </is>
-      </c>
-      <c r="U18" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -3011,97 +3011,97 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>334</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,05%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K24" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O24" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P24" s="2" t="inlineStr">
-        <is>
-          <t>0,04%</t>
-        </is>
-      </c>
-      <c r="Q24" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S24" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T24" s="2" t="inlineStr">
-        <is>
-          <t>331</t>
-        </is>
-      </c>
-      <c r="U24" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>0,02%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/COM_FRUTA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/COM_FRUTA-Estudios-trans_orig.xlsx
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Comercios de frutas y verduras en País Vasco</t>
+          <t>Comercios de frutas y verduras en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3511,7 +3511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Comercios de frutas y verduras en Barcelona</t>
+          <t>Comercios de frutas y verduras en Barcelona (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/COM_FRUTA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/COM_FRUTA-Estudios-trans_orig.xlsx
@@ -734,102 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4008</t>
+          <t>3267</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2553</t>
+          <t>2113</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6359</t>
+          <t>5135</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>3,95%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6,21%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5531</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3980</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7791</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4,69%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3,38%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>6,61%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>8798</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>6812</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>11570</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
           <t>4,39%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,8%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>6,97%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>6740</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>4746</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>9162</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>5,27%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>3,71%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>7,16%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>10748</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>8110</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>14092</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>4,91%</t>
-        </is>
-      </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>5,77%</t>
         </is>
       </c>
     </row>
@@ -847,67 +847,67 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4491</t>
+          <t>3026</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2856</t>
+          <t>1900</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6831</t>
+          <t>4761</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
+          <t>2,3%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5,76%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>5357</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>3684</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7479</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>4,54%</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
           <t>3,13%</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>7,49%</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>6869</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>4767</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>9555</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>5,37%</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>3,73%</t>
-        </is>
-      </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -917,32 +917,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>11360</t>
+          <t>8384</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>8664</t>
+          <t>6466</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>14796</t>
+          <t>11078</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>5,52%</t>
         </is>
       </c>
     </row>
@@ -1073,32 +1073,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31840</t>
+          <t>30137</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27917</t>
+          <t>26533</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>36101</t>
+          <t>34298</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,91%</t>
+          <t>36,43%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,61%</t>
+          <t>32,07%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>39,59%</t>
+          <t>41,46%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1108,32 +1108,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>42324</t>
+          <t>41140</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>37819</t>
+          <t>36748</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>46965</t>
+          <t>45565</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>33,09%</t>
+          <t>34,9%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>29,57%</t>
+          <t>31,17%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>36,72%</t>
+          <t>38,65%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1143,32 +1143,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>74165</t>
+          <t>71277</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>67997</t>
+          <t>65525</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>80177</t>
+          <t>77280</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>33,85%</t>
+          <t>35,53%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>31,03%</t>
+          <t>32,66%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>36,59%</t>
+          <t>38,52%</t>
         </is>
       </c>
     </row>
@@ -1186,32 +1186,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>50858</t>
+          <t>46294</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>46367</t>
+          <t>42495</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>54728</t>
+          <t>50132</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>55,77%</t>
+          <t>55,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>50,84%</t>
+          <t>51,37%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>60,01%</t>
+          <t>60,6%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1221,32 +1221,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>71979</t>
+          <t>65861</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>67130</t>
+          <t>61441</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>76865</t>
+          <t>70421</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>56,27%</t>
+          <t>55,87%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>52,48%</t>
+          <t>52,12%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>60,09%</t>
+          <t>59,73%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1256,32 +1256,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>122837</t>
+          <t>112155</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>116667</t>
+          <t>106540</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>129617</t>
+          <t>118458</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>56,06%</t>
+          <t>55,91%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>53,25%</t>
+          <t>53,11%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>59,16%</t>
+          <t>59,05%</t>
         </is>
       </c>
     </row>
@@ -1299,17 +1299,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,17 +1334,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,17 +1369,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,32 +1416,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24950</t>
+          <t>23197</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20969</t>
+          <t>19135</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29090</t>
+          <t>27338</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1451,32 +1451,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18806</t>
+          <t>19124</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>15557</t>
+          <t>15714</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>22573</t>
+          <t>22949</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1486,32 +1486,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>43756</t>
+          <t>42321</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>37983</t>
+          <t>36372</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>49652</t>
+          <t>48214</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>5,26%</t>
         </is>
       </c>
     </row>
@@ -1529,32 +1529,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34685</t>
+          <t>33003</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30072</t>
+          <t>28819</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>39620</t>
+          <t>38298</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1564,32 +1564,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>33845</t>
+          <t>31330</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29064</t>
+          <t>26757</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>39627</t>
+          <t>35871</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1599,32 +1599,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>68530</t>
+          <t>64333</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>61659</t>
+          <t>57464</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>75913</t>
+          <t>71810</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>7,83%</t>
         </is>
       </c>
     </row>
@@ -1755,32 +1755,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>147131</t>
+          <t>145338</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>138041</t>
+          <t>136748</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>156502</t>
+          <t>154174</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>31,74%</t>
+          <t>31,04%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,78%</t>
+          <t>29,21%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,76%</t>
+          <t>32,93%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1790,32 +1790,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>135942</t>
+          <t>135233</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>127768</t>
+          <t>126458</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>144079</t>
+          <t>143477</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>30,94%</t>
+          <t>30,12%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>29,08%</t>
+          <t>28,17%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>32,79%</t>
+          <t>31,96%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1825,32 +1825,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>283073</t>
+          <t>280571</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>270965</t>
+          <t>268508</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>295498</t>
+          <t>292056</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>31,35%</t>
+          <t>30,59%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>30,01%</t>
+          <t>29,28%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>32,73%</t>
+          <t>31,84%</t>
         </is>
       </c>
     </row>
@@ -1868,32 +1868,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>256740</t>
+          <t>266676</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>247510</t>
+          <t>257036</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>265754</t>
+          <t>274947</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>55,39%</t>
+          <t>56,96%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>53,4%</t>
+          <t>54,9%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>57,34%</t>
+          <t>58,72%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1903,32 +1903,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>250758</t>
+          <t>263237</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>242047</t>
+          <t>254217</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>259710</t>
+          <t>272822</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>57,07%</t>
+          <t>58,64%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>55,09%</t>
+          <t>56,63%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>59,11%</t>
+          <t>60,77%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1938,32 +1938,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>507498</t>
+          <t>529912</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>494058</t>
+          <t>517132</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>519716</t>
+          <t>542320</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>56,21%</t>
+          <t>57,78%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>54,72%</t>
+          <t>56,39%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>57,56%</t>
+          <t>59,13%</t>
         </is>
       </c>
     </row>
@@ -1981,17 +1981,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2016,17 +2016,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2051,17 +2051,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2098,32 +2098,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6972</t>
+          <t>6825</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4837</t>
+          <t>4700</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9847</t>
+          <t>9582</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2133,32 +2133,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11462</t>
+          <t>10779</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>8681</t>
+          <t>8128</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>14725</t>
+          <t>14097</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2168,32 +2168,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>18435</t>
+          <t>17604</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>14840</t>
+          <t>13927</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>22824</t>
+          <t>21310</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>5,0%</t>
         </is>
       </c>
     </row>
@@ -2211,32 +2211,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13036</t>
+          <t>14864</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10040</t>
+          <t>11656</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16710</t>
+          <t>18580</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2246,32 +2246,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15143</t>
+          <t>18010</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>12037</t>
+          <t>14678</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>18760</t>
+          <t>22169</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2281,32 +2281,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>28178</t>
+          <t>32874</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>23755</t>
+          <t>27694</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>32521</t>
+          <t>38205</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>8,97%</t>
         </is>
       </c>
     </row>
@@ -2437,32 +2437,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>48091</t>
+          <t>53854</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>43443</t>
+          <t>47684</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>53850</t>
+          <t>59411</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>30,98%</t>
+          <t>29,18%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>27,98%</t>
+          <t>25,83%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>34,68%</t>
+          <t>32,19%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2472,32 +2472,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>58046</t>
+          <t>64740</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>52691</t>
+          <t>58180</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>63969</t>
+          <t>70930</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>29,04%</t>
+          <t>26,81%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>26,36%</t>
+          <t>24,1%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>32,0%</t>
+          <t>29,38%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2507,32 +2507,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>106138</t>
+          <t>118594</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>98419</t>
+          <t>109776</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>113565</t>
+          <t>127454</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>29,89%</t>
+          <t>27,84%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>27,71%</t>
+          <t>25,77%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>31,98%</t>
+          <t>29,92%</t>
         </is>
       </c>
     </row>
@@ -2550,32 +2550,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>87156</t>
+          <t>109042</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>81035</t>
+          <t>102507</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>92301</t>
+          <t>115496</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>56,14%</t>
+          <t>59,07%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>52,19%</t>
+          <t>55,53%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>59,45%</t>
+          <t>62,57%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2585,32 +2585,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>115225</t>
+          <t>147926</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>109091</t>
+          <t>141279</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>122450</t>
+          <t>154999</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>57,65%</t>
+          <t>61,26%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>54,58%</t>
+          <t>58,51%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>61,26%</t>
+          <t>64,19%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2620,32 +2620,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>202380</t>
+          <t>256967</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>194220</t>
+          <t>248153</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>210003</t>
+          <t>266133</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>56,99%</t>
+          <t>60,32%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>54,69%</t>
+          <t>58,25%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>59,13%</t>
+          <t>62,47%</t>
         </is>
       </c>
     </row>
@@ -2663,17 +2663,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2698,17 +2698,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2733,17 +2733,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2780,67 +2780,67 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>35930</t>
+          <t>33289</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>31064</t>
+          <t>28450</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>41476</t>
+          <t>38581</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
+          <t>3,87%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>5,25%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>35434</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>30108</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>40666</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
           <t>4,38%</t>
         </is>
       </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>5,84%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>214</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>37008</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>32210</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>42811</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>4,82%</t>
-        </is>
-      </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2850,32 +2850,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>72939</t>
+          <t>68723</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>66109</t>
+          <t>61853</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>80301</t>
+          <t>76353</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>4,95%</t>
         </is>
       </c>
     </row>
@@ -2893,32 +2893,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>52212</t>
+          <t>50894</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>46153</t>
+          <t>44983</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>58756</t>
+          <t>57409</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2928,32 +2928,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>55856</t>
+          <t>54697</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>49473</t>
+          <t>48320</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>62512</t>
+          <t>60895</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2963,32 +2963,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>108068</t>
+          <t>105591</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>99624</t>
+          <t>96425</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>117543</t>
+          <t>113998</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>7,38%</t>
         </is>
       </c>
     </row>
@@ -3119,32 +3119,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>227063</t>
+          <t>229329</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>216745</t>
+          <t>218125</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>238744</t>
+          <t>241054</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>31,98%</t>
+          <t>31,18%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>30,53%</t>
+          <t>29,66%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>33,63%</t>
+          <t>32,77%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3154,32 +3154,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>236312</t>
+          <t>241113</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>225437</t>
+          <t>229798</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>248279</t>
+          <t>252499</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>30,8%</t>
+          <t>29,83%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>29,39%</t>
+          <t>28,43%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>32,36%</t>
+          <t>31,24%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3189,32 +3189,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>463376</t>
+          <t>470442</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>447960</t>
+          <t>455880</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>481678</t>
+          <t>487340</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>31,37%</t>
+          <t>30,47%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>30,33%</t>
+          <t>29,53%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>32,61%</t>
+          <t>31,57%</t>
         </is>
       </c>
     </row>
@@ -3232,32 +3232,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>394754</t>
+          <t>422012</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>382203</t>
+          <t>409185</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>405928</t>
+          <t>433794</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>55,6%</t>
+          <t>57,38%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>53,83%</t>
+          <t>55,63%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>57,18%</t>
+          <t>58,98%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3267,32 +3267,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>437961</t>
+          <t>477024</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>425603</t>
+          <t>464439</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>449838</t>
+          <t>489166</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>57,09%</t>
+          <t>59,02%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>55,48%</t>
+          <t>57,46%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>58,64%</t>
+          <t>60,52%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3302,32 +3302,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>832715</t>
+          <t>899035</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>814059</t>
+          <t>881525</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>849086</t>
+          <t>915690</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>56,38%</t>
+          <t>58,24%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>55,11%</t>
+          <t>57,1%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>57,48%</t>
+          <t>59,31%</t>
         </is>
       </c>
     </row>
@@ -3345,17 +3345,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3380,17 +3380,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3415,17 +3415,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2896</t>
+          <t>2488</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>911</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7512</t>
+          <t>7674</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3756,12 +3756,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3776,12 +3776,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>1486</t>
+          <t>1375</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>8534</t>
+          <t>9839</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3791,12 +3791,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>4,54%</t>
         </is>
       </c>
     </row>
@@ -3819,12 +3819,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5429</t>
+          <t>5062</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21464</t>
+          <t>21134</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3834,12 +3834,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,21%</t>
+          <t>21,87%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3854,12 +3854,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4118</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15052</t>
+          <t>15383</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3869,12 +3869,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3889,12 +3889,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>11773</t>
+          <t>10943</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>30618</t>
+          <t>30097</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3904,12 +3904,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>13,9%</t>
         </is>
       </c>
     </row>
@@ -3932,12 +3932,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1291</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12754</t>
+          <t>13611</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3947,12 +3947,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -3967,12 +3967,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>175</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>13345</t>
+          <t>13555</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3982,12 +3982,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -4002,12 +4002,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>3138</t>
+          <t>3126</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>18933</t>
+          <t>17804</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4017,12 +4017,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>8,22%</t>
         </is>
       </c>
     </row>
@@ -4045,12 +4045,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>34858</t>
+          <t>36713</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>57340</t>
+          <t>57130</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4060,12 +4060,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,07%</t>
+          <t>37,99%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>59,33%</t>
+          <t>59,12%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4080,12 +4080,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>61937</t>
+          <t>61536</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>80914</t>
+          <t>81426</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4095,12 +4095,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>51,68%</t>
+          <t>51,35%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>67,52%</t>
+          <t>67,95%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -4115,12 +4115,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>101163</t>
+          <t>101837</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>132135</t>
+          <t>133123</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4130,12 +4130,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>46,73%</t>
+          <t>47,04%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>61,04%</t>
+          <t>61,5%</t>
         </is>
       </c>
     </row>
@@ -4158,12 +4158,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>24308</t>
+          <t>24702</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>46728</t>
+          <t>46298</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -4173,12 +4173,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,15%</t>
+          <t>25,56%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>48,35%</t>
+          <t>47,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -4193,12 +4193,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>26070</t>
+          <t>25170</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>44062</t>
+          <t>43735</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4208,12 +4208,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>21,0%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>36,77%</t>
+          <t>36,49%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4228,12 +4228,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>53809</t>
+          <t>54643</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>84877</t>
+          <t>83806</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4243,12 +4243,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>24,86%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>39,21%</t>
+          <t>38,71%</t>
         </is>
       </c>
     </row>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>3475</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11024</t>
+          <t>10735</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4403,12 +4403,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4423,12 +4423,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3594</t>
+          <t>3779</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10246</t>
+          <t>10551</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4438,12 +4438,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4458,12 +4458,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>8636</t>
+          <t>8852</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>18802</t>
+          <t>18433</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4473,12 +4473,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,59%</t>
         </is>
       </c>
     </row>
@@ -4501,12 +4501,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15429</t>
+          <t>15344</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28132</t>
+          <t>27964</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4516,12 +4516,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4536,12 +4536,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22306</t>
+          <t>23155</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>37748</t>
+          <t>38383</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4551,12 +4551,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4571,12 +4571,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>41917</t>
+          <t>40212</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>60584</t>
+          <t>59414</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4586,12 +4586,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>8,35%</t>
         </is>
       </c>
     </row>
@@ -4614,12 +4614,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8318</t>
+          <t>8015</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>18882</t>
+          <t>18476</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4629,12 +4629,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -4649,12 +4649,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>11666</t>
+          <t>11754</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>22936</t>
+          <t>23276</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4664,12 +4664,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -4684,12 +4684,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>22440</t>
+          <t>22234</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>37592</t>
+          <t>37044</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4699,12 +4699,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>5,21%</t>
         </is>
       </c>
     </row>
@@ -4727,12 +4727,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>210721</t>
+          <t>211615</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>237758</t>
+          <t>236204</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4742,12 +4742,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>59,04%</t>
+          <t>59,29%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>66,61%</t>
+          <t>66,18%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4762,12 +4762,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>189127</t>
+          <t>190922</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>215257</t>
+          <t>217496</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4777,12 +4777,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>53,39%</t>
+          <t>53,9%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>60,77%</t>
+          <t>61,4%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4797,12 +4797,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>408893</t>
+          <t>407190</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>444646</t>
+          <t>446041</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4812,12 +4812,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>57,5%</t>
+          <t>57,26%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>62,52%</t>
+          <t>62,72%</t>
         </is>
       </c>
     </row>
@@ -4840,12 +4840,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>82300</t>
+          <t>83295</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>105222</t>
+          <t>105373</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4855,12 +4855,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>23,06%</t>
+          <t>23,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>29,48%</t>
+          <t>29,52%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4875,12 +4875,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>87018</t>
+          <t>87174</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>111199</t>
+          <t>112115</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4890,12 +4890,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>24,61%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>31,39%</t>
+          <t>31,65%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4910,12 +4910,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>175878</t>
+          <t>176088</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>208372</t>
+          <t>210040</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4925,12 +4925,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>24,76%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>29,3%</t>
+          <t>29,53%</t>
         </is>
       </c>
     </row>
@@ -5070,12 +5070,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>916</t>
+          <t>866</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5134</t>
+          <t>5579</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5085,12 +5085,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5105,12 +5105,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>3043</t>
+          <t>2697</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>10253</t>
+          <t>10189</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5120,12 +5120,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5140,12 +5140,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>4620</t>
+          <t>4370</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>13272</t>
+          <t>13368</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5155,12 +5155,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,64%</t>
         </is>
       </c>
     </row>
@@ -5183,12 +5183,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11083</t>
+          <t>11334</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22060</t>
+          <t>22254</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -5198,12 +5198,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -5218,12 +5218,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>17290</t>
+          <t>17548</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>29835</t>
+          <t>29654</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -5233,12 +5233,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -5253,12 +5253,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>31463</t>
+          <t>31450</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>48244</t>
+          <t>47699</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -5273,7 +5273,7 @@
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>9,43%</t>
         </is>
       </c>
     </row>
@@ -5296,12 +5296,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2738</t>
+          <t>2883</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>9534</t>
+          <t>9641</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5311,12 +5311,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -5331,12 +5331,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>3632</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>10343</t>
+          <t>10269</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5346,12 +5346,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -5366,12 +5366,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>7722</t>
+          <t>7920</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>17497</t>
+          <t>17122</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5381,12 +5381,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>3,39%</t>
         </is>
       </c>
     </row>
@@ -5409,12 +5409,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>133454</t>
+          <t>132778</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>152123</t>
+          <t>152117</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>59,95%</t>
+          <t>59,65%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -5444,12 +5444,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>145551</t>
+          <t>144169</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>168376</t>
+          <t>168594</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5459,12 +5459,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>51,44%</t>
+          <t>50,95%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>59,51%</t>
+          <t>59,58%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5479,12 +5479,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>284486</t>
+          <t>283898</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>316230</t>
+          <t>316014</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5494,12 +5494,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>56,27%</t>
+          <t>56,15%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>62,55%</t>
+          <t>62,51%</t>
         </is>
       </c>
     </row>
@@ -5522,12 +5522,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>48277</t>
+          <t>48356</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>65495</t>
+          <t>66265</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5537,12 +5537,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>21,69%</t>
+          <t>21,72%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>29,42%</t>
+          <t>29,77%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5557,12 +5557,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>80481</t>
+          <t>79310</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>102085</t>
+          <t>102021</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5572,12 +5572,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>28,44%</t>
+          <t>28,03%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>36,08%</t>
+          <t>36,05%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5592,12 +5592,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>133839</t>
+          <t>132474</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>161582</t>
+          <t>161412</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5607,12 +5607,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>26,47%</t>
+          <t>26,2%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>31,96%</t>
+          <t>31,93%</t>
         </is>
       </c>
     </row>
@@ -5752,12 +5752,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>5952</t>
+          <t>5981</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>14620</t>
+          <t>14270</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5772,7 +5772,7 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5787,12 +5787,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>10133</t>
+          <t>10474</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>21760</t>
+          <t>21375</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5802,12 +5802,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5822,12 +5822,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>18576</t>
+          <t>17967</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>32222</t>
+          <t>33265</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5837,12 +5837,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,32%</t>
         </is>
       </c>
     </row>
@@ -5865,12 +5865,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>36678</t>
+          <t>37621</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>58905</t>
+          <t>59324</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5880,12 +5880,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5900,12 +5900,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>50916</t>
+          <t>51259</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>71804</t>
+          <t>72756</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5915,12 +5915,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5935,12 +5935,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>94023</t>
+          <t>94649</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>124333</t>
+          <t>126565</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5950,12 +5950,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>8,83%</t>
         </is>
       </c>
     </row>
@@ -5978,12 +5978,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>16501</t>
+          <t>16815</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>31604</t>
+          <t>33330</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -5993,12 +5993,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -6013,12 +6013,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>19020</t>
+          <t>19500</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>34968</t>
+          <t>34739</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6028,12 +6028,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -6048,12 +6048,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>38914</t>
+          <t>38600</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>61415</t>
+          <t>61744</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6063,12 +6063,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>4,31%</t>
         </is>
       </c>
     </row>
@@ -6091,12 +6091,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>392664</t>
+          <t>392211</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>434454</t>
+          <t>433849</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6106,12 +6106,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>58,07%</t>
+          <t>58,0%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>64,25%</t>
+          <t>64,16%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6126,12 +6126,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>411770</t>
+          <t>411777</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>452933</t>
+          <t>451596</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6146,7 +6146,7 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>59,83%</t>
+          <t>59,65%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6161,12 +6161,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>815233</t>
+          <t>814006</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>873755</t>
+          <t>872306</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6176,12 +6176,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>56,88%</t>
+          <t>56,8%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>60,97%</t>
+          <t>60,86%</t>
         </is>
       </c>
     </row>
@@ -6204,12 +6204,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>166363</t>
+          <t>165926</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>204354</t>
+          <t>203042</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6219,12 +6219,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>24,6%</t>
+          <t>24,54%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>30,22%</t>
+          <t>30,03%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6239,12 +6239,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>207186</t>
+          <t>206361</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>242939</t>
+          <t>242586</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6254,12 +6254,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>27,26%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>32,09%</t>
+          <t>32,04%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6274,12 +6274,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>382097</t>
+          <t>380183</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>432521</t>
+          <t>432040</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6289,12 +6289,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>26,66%</t>
+          <t>26,53%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>30,18%</t>
+          <t>30,15%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/COM_FRUTA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/COM_FRUTA-Estudios-trans_orig.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Comercios de frutas y verduras en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Comercios de frutas y verduras en Barcelona (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -729,107 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3267</t>
+          <t>588</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2113</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5135</t>
+          <t>2488</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5531</t>
+          <t>2992</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3980</t>
+          <t>911</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7791</t>
+          <t>7674</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>9</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>8798</t>
+          <t>3580</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>6812</t>
+          <t>1375</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>11570</t>
+          <t>9839</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>4,54%</t>
         </is>
       </c>
     </row>
@@ -842,107 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3026</t>
+          <t>10918</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1900</t>
+          <t>5062</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4761</t>
+          <t>21134</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>21,87%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5357</t>
+          <t>7911</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3684</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7479</t>
+          <t>15383</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>36</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>8384</t>
+          <t>18829</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>6466</t>
+          <t>10943</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>11078</t>
+          <t>30097</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>13,9%</t>
         </is>
       </c>
     </row>
@@ -955,107 +955,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4835</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>13611</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3482</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>175</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>13555</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8317</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3126</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>17804</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,22%</t>
         </is>
       </c>
     </row>
@@ -1068,107 +1068,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30137</t>
+          <t>46214</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26533</t>
+          <t>36713</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34298</t>
+          <t>57130</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,43%</t>
+          <t>47,82%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,07%</t>
+          <t>37,99%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>41,46%</t>
+          <t>59,12%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>184</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>41140</t>
+          <t>71442</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>36748</t>
+          <t>61536</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>45565</t>
+          <t>81426</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>34,9%</t>
+          <t>59,62%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>31,17%</t>
+          <t>51,35%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>38,65%</t>
+          <t>67,95%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>296</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>71277</t>
+          <t>117657</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>65525</t>
+          <t>101837</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>77280</t>
+          <t>133123</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>35,53%</t>
+          <t>54,35%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>32,66%</t>
+          <t>47,04%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>38,52%</t>
+          <t>61,5%</t>
         </is>
       </c>
     </row>
@@ -1181,107 +1181,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>46294</t>
+          <t>34084</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>42495</t>
+          <t>24702</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>50132</t>
+          <t>46298</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>55,96%</t>
+          <t>35,27%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>51,37%</t>
+          <t>25,56%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>60,6%</t>
+          <t>47,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>81</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>65861</t>
+          <t>34011</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>61441</t>
+          <t>25170</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>70421</t>
+          <t>43735</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>55,87%</t>
+          <t>28,38%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>52,12%</t>
+          <t>21,0%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>59,73%</t>
+          <t>36,49%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>136</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>112155</t>
+          <t>68095</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>106540</t>
+          <t>54643</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>118458</t>
+          <t>83806</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>55,91%</t>
+          <t>31,46%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>53,11%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>59,05%</t>
+          <t>38,71%</t>
         </is>
       </c>
     </row>
@@ -1294,22 +1294,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>82724</t>
+          <t>96639</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>82724</t>
+          <t>96639</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>82724</t>
+          <t>96639</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1329,22 +1329,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>296</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>117890</t>
+          <t>119838</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>117890</t>
+          <t>119838</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>117890</t>
+          <t>119838</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1364,22 +1364,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1266</t>
+          <t>489</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>200614</t>
+          <t>216477</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>200614</t>
+          <t>216477</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>200614</t>
+          <t>216477</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1411,107 +1411,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23197</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19135</t>
+          <t>3475</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27338</t>
+          <t>10735</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19124</t>
+          <t>6572</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>15714</t>
+          <t>3779</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>22949</t>
+          <t>10551</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>30</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>42321</t>
+          <t>12880</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>36372</t>
+          <t>8852</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>48214</t>
+          <t>18433</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>2,59%</t>
         </is>
       </c>
     </row>
@@ -1524,107 +1524,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33003</t>
+          <t>20649</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28819</t>
+          <t>15344</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>38298</t>
+          <t>27964</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31330</t>
+          <t>29287</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26757</t>
+          <t>23155</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>35871</t>
+          <t>38383</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>115</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>64333</t>
+          <t>49935</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>57464</t>
+          <t>40212</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>71810</t>
+          <t>59414</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>8,35%</t>
         </is>
       </c>
     </row>
@@ -1637,107 +1637,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12606</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>8015</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>18476</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16549</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>11754</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>23276</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29155</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>22234</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>37044</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,21%</t>
         </is>
       </c>
     </row>
@@ -1750,107 +1750,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>838</t>
+          <t>496</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>145338</t>
+          <t>224594</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>136748</t>
+          <t>211615</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>154174</t>
+          <t>236204</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>31,04%</t>
+          <t>62,92%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,21%</t>
+          <t>59,29%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>32,93%</t>
+          <t>66,18%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>767</t>
+          <t>462</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>135233</t>
+          <t>202886</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>126458</t>
+          <t>190922</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>143477</t>
+          <t>217496</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>30,12%</t>
+          <t>57,28%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>53,9%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>31,96%</t>
+          <t>61,4%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>1605</t>
+          <t>958</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>280571</t>
+          <t>427480</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>268508</t>
+          <t>407190</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>292056</t>
+          <t>446041</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>30,59%</t>
+          <t>60,11%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>29,28%</t>
+          <t>57,26%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>31,84%</t>
+          <t>62,72%</t>
         </is>
       </c>
     </row>
@@ -1863,107 +1863,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1476</t>
+          <t>209</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>266676</t>
+          <t>92773</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>257036</t>
+          <t>83295</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>274947</t>
+          <t>105373</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>56,96%</t>
+          <t>25,99%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>54,9%</t>
+          <t>23,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>58,72%</t>
+          <t>29,52%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1447</t>
+          <t>227</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>263237</t>
+          <t>98935</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>254217</t>
+          <t>87174</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>272822</t>
+          <t>112115</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>58,64%</t>
+          <t>27,93%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>56,63%</t>
+          <t>24,61%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>60,77%</t>
+          <t>31,65%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>2923</t>
+          <t>436</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>529912</t>
+          <t>191708</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>517132</t>
+          <t>176088</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>542320</t>
+          <t>210040</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>57,78%</t>
+          <t>26,96%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>56,39%</t>
+          <t>24,76%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>59,13%</t>
+          <t>29,53%</t>
         </is>
       </c>
     </row>
@@ -1976,22 +1976,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2656</t>
+          <t>795</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>468215</t>
+          <t>356930</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>468215</t>
+          <t>356930</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>468215</t>
+          <t>356930</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2011,22 +2011,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>808</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>448923</t>
+          <t>354228</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>448923</t>
+          <t>354228</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>448923</t>
+          <t>354228</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2046,22 +2046,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>5173</t>
+          <t>1603</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>917137</t>
+          <t>711158</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>917137</t>
+          <t>711158</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>917137</t>
+          <t>711158</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2093,107 +2093,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6825</t>
+          <t>2423</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4700</t>
+          <t>866</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9582</t>
+          <t>5579</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>10779</t>
+          <t>5515</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>8128</t>
+          <t>2697</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>14097</t>
+          <t>10189</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>21</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>17604</t>
+          <t>7938</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>13927</t>
+          <t>4370</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>21310</t>
+          <t>13368</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>2,64%</t>
         </is>
       </c>
     </row>
@@ -2206,107 +2206,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14864</t>
+          <t>15698</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11656</t>
+          <t>11334</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18580</t>
+          <t>22254</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18010</t>
+          <t>23226</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14678</t>
+          <t>17548</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>22169</t>
+          <t>29654</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>115</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>32874</t>
+          <t>38924</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>27694</t>
+          <t>31450</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>38205</t>
+          <t>47699</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>9,43%</t>
         </is>
       </c>
     </row>
@@ -2319,107 +2319,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5450</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2883</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>9641</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6150</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3632</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>10269</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11600</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7920</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>17122</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,39%</t>
         </is>
       </c>
     </row>
@@ -2432,107 +2432,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>404</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>53854</t>
+          <t>142586</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>47684</t>
+          <t>132778</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>59411</t>
+          <t>152117</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>29,18%</t>
+          <t>64,05%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>25,83%</t>
+          <t>59,65%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>32,19%</t>
+          <t>68,34%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>422</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>64740</t>
+          <t>157369</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>58180</t>
+          <t>144169</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>70930</t>
+          <t>168594</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>26,81%</t>
+          <t>55,62%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>24,1%</t>
+          <t>50,95%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>29,38%</t>
+          <t>59,58%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>826</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>118594</t>
+          <t>299955</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>109776</t>
+          <t>283898</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>127454</t>
+          <t>316014</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>27,84%</t>
+          <t>59,33%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>25,77%</t>
+          <t>56,15%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>29,92%</t>
+          <t>62,51%</t>
         </is>
       </c>
     </row>
@@ -2545,107 +2545,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>168</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>109042</t>
+          <t>56446</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>102507</t>
+          <t>48356</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>115496</t>
+          <t>66265</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>59,07%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>55,53%</t>
+          <t>21,72%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>62,57%</t>
+          <t>29,77%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>234</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>147926</t>
+          <t>90701</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>141279</t>
+          <t>79310</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>154999</t>
+          <t>102021</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>61,26%</t>
+          <t>32,05%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>58,51%</t>
+          <t>28,03%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>64,19%</t>
+          <t>36,05%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>402</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>256967</t>
+          <t>147147</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>248153</t>
+          <t>132474</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>266133</t>
+          <t>161412</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>60,32%</t>
+          <t>29,11%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>58,25%</t>
+          <t>26,2%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>62,47%</t>
+          <t>31,93%</t>
         </is>
       </c>
     </row>
@@ -2658,22 +2658,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>640</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>184584</t>
+          <t>222604</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>184584</t>
+          <t>222604</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>184584</t>
+          <t>222604</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2693,22 +2693,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1209</t>
+          <t>761</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>241455</t>
+          <t>282960</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>241455</t>
+          <t>282960</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>241455</t>
+          <t>282960</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2728,22 +2728,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>2122</t>
+          <t>1401</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>426039</t>
+          <t>505564</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>426039</t>
+          <t>505564</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>426039</t>
+          <t>505564</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2775,107 +2775,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>33289</t>
+          <t>9319</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>28450</t>
+          <t>5981</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>38581</t>
+          <t>14270</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>35434</t>
+          <t>15079</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>30108</t>
+          <t>10474</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>40666</t>
+          <t>21375</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>60</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>68723</t>
+          <t>24397</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>61853</t>
+          <t>17967</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>76353</t>
+          <t>33265</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>2,32%</t>
         </is>
       </c>
     </row>
@@ -2888,107 +2888,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>50894</t>
+          <t>47266</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>44983</t>
+          <t>37621</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>57409</t>
+          <t>59324</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>157</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>54697</t>
+          <t>60423</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>48320</t>
+          <t>51259</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>60895</t>
+          <t>72756</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
+          <t>7,98%</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
           <t>6,77%</t>
         </is>
       </c>
-      <c r="O23" s="2" t="inlineStr">
-        <is>
-          <t>5,98%</t>
-        </is>
-      </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>266</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>105591</t>
+          <t>107689</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>96425</t>
+          <t>94649</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>113998</t>
+          <t>126565</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>8,83%</t>
         </is>
       </c>
     </row>
@@ -3001,107 +3001,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22891</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>16815</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>33330</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26181</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>19500</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>34739</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>113</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49072</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>38600</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>61744</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,31%</t>
         </is>
       </c>
     </row>
@@ -3114,107 +3114,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1288</t>
+          <t>1012</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>229329</t>
+          <t>413395</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>218125</t>
+          <t>392211</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>241054</t>
+          <t>433849</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>31,18%</t>
+          <t>61,14%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>29,66%</t>
+          <t>58,0%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>32,77%</t>
+          <t>64,16%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>1068</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>241113</t>
+          <t>431696</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>229798</t>
+          <t>411777</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>252499</t>
+          <t>451596</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>29,83%</t>
+          <t>57,03%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>28,43%</t>
+          <t>54,39%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>31,24%</t>
+          <t>59,65%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>2641</t>
+          <t>2080</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>470442</t>
+          <t>845091</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>455880</t>
+          <t>814006</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>487340</t>
+          <t>872306</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>30,47%</t>
+          <t>58,97%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>29,53%</t>
+          <t>56,8%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>31,57%</t>
+          <t>60,86%</t>
         </is>
       </c>
     </row>
@@ -3227,107 +3227,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2294</t>
+          <t>432</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>422012</t>
+          <t>183304</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>409185</t>
+          <t>165926</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>433794</t>
+          <t>203042</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>57,38%</t>
+          <t>27,11%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>55,63%</t>
+          <t>24,54%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>58,98%</t>
+          <t>30,03%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2591</t>
+          <t>542</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>477024</t>
+          <t>223646</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>464439</t>
+          <t>206361</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>489166</t>
+          <t>242586</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>59,02%</t>
+          <t>29,54%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>57,46%</t>
+          <t>27,26%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>60,52%</t>
+          <t>32,04%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>4885</t>
+          <t>974</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>899035</t>
+          <t>406949</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>881525</t>
+          <t>380183</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>915690</t>
+          <t>432040</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>58,24%</t>
+          <t>28,39%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>57,1%</t>
+          <t>26,53%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>59,31%</t>
+          <t>30,15%</t>
         </is>
       </c>
     </row>
@@ -3340,22 +3340,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>4077</t>
+          <t>1628</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>735523</t>
+          <t>676174</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>735523</t>
+          <t>676174</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>735523</t>
+          <t>676174</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3375,22 +3375,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4484</t>
+          <t>1865</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>808268</t>
+          <t>757025</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>808268</t>
+          <t>757025</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>808268</t>
+          <t>757025</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3410,22 +3410,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>8561</t>
+          <t>3493</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1543791</t>
+          <t>1433199</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1543791</t>
+          <t>1433199</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1543791</t>
+          <t>1433199</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3511,7 +3511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Comercios de frutas y verduras en Barcelona (tasa de respuesta: 99,74%)</t>
+          <t>Comercios de frutas y verduras en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3696,107 +3696,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>3267</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2113</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2488</t>
+          <t>5135</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2992</t>
+          <t>5531</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>911</t>
+          <t>3980</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7674</t>
+          <t>7791</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>63</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>3580</t>
+          <t>8798</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>1375</t>
+          <t>6812</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>9839</t>
+          <t>11570</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>5,77%</t>
         </is>
       </c>
     </row>
@@ -3809,107 +3809,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10918</t>
+          <t>3026</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5062</t>
+          <t>1900</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21134</t>
+          <t>4761</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7911</t>
+          <t>5357</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4316</t>
+          <t>3684</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15383</t>
+          <t>7479</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>59</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>18829</t>
+          <t>8384</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>10943</t>
+          <t>6466</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>30097</t>
+          <t>11078</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>5,52%</t>
         </is>
       </c>
     </row>
@@ -3922,107 +3922,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4835</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1332</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13611</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3482</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>13555</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>8317</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>3126</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>17804</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -4035,107 +4035,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>46214</t>
+          <t>30137</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36713</t>
+          <t>26533</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>57130</t>
+          <t>34298</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>47,82%</t>
+          <t>36,43%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>37,99%</t>
+          <t>32,07%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>59,12%</t>
+          <t>41,46%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>245</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>71442</t>
+          <t>41140</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>61536</t>
+          <t>36748</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>81426</t>
+          <t>45565</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>59,62%</t>
+          <t>34,9%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>51,35%</t>
+          <t>31,17%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>67,95%</t>
+          <t>38,65%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>419</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>117657</t>
+          <t>71277</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>101837</t>
+          <t>65525</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>133123</t>
+          <t>77280</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>54,35%</t>
+          <t>35,53%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>47,04%</t>
+          <t>32,66%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>61,5%</t>
+          <t>38,52%</t>
         </is>
       </c>
     </row>
@@ -4148,107 +4148,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>34084</t>
+          <t>46294</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>24702</t>
+          <t>42495</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>46298</t>
+          <t>50132</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>35,27%</t>
+          <t>55,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,56%</t>
+          <t>51,37%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>47,91%</t>
+          <t>60,6%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>436</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>34011</t>
+          <t>65861</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>25170</t>
+          <t>61441</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>43735</t>
+          <t>70421</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>28,38%</t>
+          <t>55,87%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>21,0%</t>
+          <t>52,12%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>36,49%</t>
+          <t>59,73%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>725</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>68095</t>
+          <t>112155</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>54643</t>
+          <t>106540</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>83806</t>
+          <t>118458</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>31,46%</t>
+          <t>55,91%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>53,11%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>38,71%</t>
+          <t>59,05%</t>
         </is>
       </c>
     </row>
@@ -4261,22 +4261,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>508</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>96639</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>96639</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>96639</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4296,22 +4296,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>758</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>119838</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>119838</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>119838</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4331,22 +4331,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>1266</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>216477</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>216477</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>216477</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4378,107 +4378,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>23197</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3475</t>
+          <t>19135</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10735</t>
+          <t>27338</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6572</t>
+          <t>19124</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3779</t>
+          <t>15714</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10551</t>
+          <t>22949</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>248</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>12880</t>
+          <t>42321</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>8852</t>
+          <t>36372</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>18433</t>
+          <t>48214</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>5,26%</t>
         </is>
       </c>
     </row>
@@ -4491,107 +4491,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>207</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20649</t>
+          <t>33003</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15344</t>
+          <t>28819</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27964</t>
+          <t>38298</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>8,18%</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>31330</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>26757</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>35871</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>6,98%</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>5,96%</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>7,99%</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>64333</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>57464</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>71810</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>7,01%</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>6,27%</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
           <t>7,83%</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>29287</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>23155</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>38383</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>8,27%</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>6,54%</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>10,84%</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>49935</t>
-        </is>
-      </c>
-      <c r="S11" s="2" t="inlineStr">
-        <is>
-          <t>40212</t>
-        </is>
-      </c>
-      <c r="T11" s="2" t="inlineStr">
-        <is>
-          <t>59414</t>
-        </is>
-      </c>
-      <c r="U11" s="2" t="inlineStr">
-        <is>
-          <t>7,02%</t>
-        </is>
-      </c>
-      <c r="V11" s="2" t="inlineStr">
-        <is>
-          <t>5,65%</t>
-        </is>
-      </c>
-      <c r="W11" s="2" t="inlineStr">
-        <is>
-          <t>8,35%</t>
         </is>
       </c>
     </row>
@@ -4604,107 +4604,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12606</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8015</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>18476</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>16549</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>11754</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>23276</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>29155</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>22234</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>37044</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -4717,107 +4717,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>838</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>224594</t>
+          <t>145338</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>211615</t>
+          <t>136748</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>236204</t>
+          <t>154174</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>62,92%</t>
+          <t>31,04%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>59,29%</t>
+          <t>29,21%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>66,18%</t>
+          <t>32,93%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>767</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>202886</t>
+          <t>135233</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>190922</t>
+          <t>126458</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>217496</t>
+          <t>143477</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>57,28%</t>
+          <t>30,12%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>53,9%</t>
+          <t>28,17%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>61,4%</t>
+          <t>31,96%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>1605</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>427480</t>
+          <t>280571</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>407190</t>
+          <t>268508</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>446041</t>
+          <t>292056</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>60,11%</t>
+          <t>30,59%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>57,26%</t>
+          <t>29,28%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>62,72%</t>
+          <t>31,84%</t>
         </is>
       </c>
     </row>
@@ -4830,107 +4830,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>1476</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>92773</t>
+          <t>266676</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>83295</t>
+          <t>257036</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>105373</t>
+          <t>274947</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>56,96%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>23,34%</t>
+          <t>54,9%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>58,72%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>1447</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>98935</t>
+          <t>263237</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>87174</t>
+          <t>254217</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>112115</t>
+          <t>272822</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>27,93%</t>
+          <t>58,64%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>24,61%</t>
+          <t>56,63%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>31,65%</t>
+          <t>60,77%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>2923</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>191708</t>
+          <t>529912</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>176088</t>
+          <t>517132</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>210040</t>
+          <t>542320</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>26,96%</t>
+          <t>57,78%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>56,39%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>29,53%</t>
+          <t>59,13%</t>
         </is>
       </c>
     </row>
@@ -4943,22 +4943,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>2656</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>356930</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>356930</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>356930</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4978,22 +4978,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>354228</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>354228</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>354228</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5013,22 +5013,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1603</t>
+          <t>5173</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>711158</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>711158</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>711158</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5060,107 +5060,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2423</t>
+          <t>6825</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>866</t>
+          <t>4700</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5579</t>
+          <t>9582</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5515</t>
+          <t>10779</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>2697</t>
+          <t>8128</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>10189</t>
+          <t>14097</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>95</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>7938</t>
+          <t>17604</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>4370</t>
+          <t>13927</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>13368</t>
+          <t>21310</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>5,0%</t>
         </is>
       </c>
     </row>
@@ -5173,107 +5173,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15698</t>
+          <t>14864</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11334</t>
+          <t>11656</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22254</t>
+          <t>18580</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>99</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23226</t>
+          <t>18010</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>17548</t>
+          <t>14678</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>29654</t>
+          <t>22169</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>173</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>38924</t>
+          <t>32874</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>31450</t>
+          <t>27694</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>47699</t>
+          <t>38205</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>8,97%</t>
         </is>
       </c>
     </row>
@@ -5286,107 +5286,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5450</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2883</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>9641</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>6150</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>3632</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>10269</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>11600</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>7920</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>17122</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5399,107 +5399,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>276</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>142586</t>
+          <t>53854</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>132778</t>
+          <t>47684</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>152117</t>
+          <t>59411</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>64,05%</t>
+          <t>29,18%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>59,65%</t>
+          <t>25,83%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>68,34%</t>
+          <t>32,19%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>341</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>157369</t>
+          <t>64740</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>144169</t>
+          <t>58180</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>168594</t>
+          <t>70930</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>55,62%</t>
+          <t>26,81%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>50,95%</t>
+          <t>24,1%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>59,58%</t>
+          <t>29,38%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>617</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>299955</t>
+          <t>118594</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>283898</t>
+          <t>109776</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>316014</t>
+          <t>127454</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>59,33%</t>
+          <t>27,84%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>56,15%</t>
+          <t>25,77%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>62,51%</t>
+          <t>29,92%</t>
         </is>
       </c>
     </row>
@@ -5512,107 +5512,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>529</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>56446</t>
+          <t>109042</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>48356</t>
+          <t>102507</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>66265</t>
+          <t>115496</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>25,36%</t>
+          <t>59,07%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>21,72%</t>
+          <t>55,53%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>62,57%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>708</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>90701</t>
+          <t>147926</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>79310</t>
+          <t>141279</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>102021</t>
+          <t>154999</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>32,05%</t>
+          <t>61,26%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>28,03%</t>
+          <t>58,51%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>36,05%</t>
+          <t>64,19%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>147147</t>
+          <t>256967</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>132474</t>
+          <t>248153</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>161412</t>
+          <t>266133</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>29,11%</t>
+          <t>60,32%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>26,2%</t>
+          <t>58,25%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>31,93%</t>
+          <t>62,47%</t>
         </is>
       </c>
     </row>
@@ -5625,22 +5625,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>913</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>222604</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>222604</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>222604</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5660,22 +5660,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>1209</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>282960</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>282960</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>282960</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5695,22 +5695,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>2122</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>505564</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>505564</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>505564</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5742,107 +5742,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>192</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>9319</t>
+          <t>33289</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>5981</t>
+          <t>28450</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>14270</t>
+          <t>38581</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>214</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>15079</t>
+          <t>35434</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>10474</t>
+          <t>30108</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>21375</t>
+          <t>40666</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>406</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>24397</t>
+          <t>68723</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>17967</t>
+          <t>61853</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>33265</t>
+          <t>76353</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>4,95%</t>
         </is>
       </c>
     </row>
@@ -5855,107 +5855,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>303</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>47266</t>
+          <t>50894</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>37621</t>
+          <t>44983</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>59324</t>
+          <t>57409</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>326</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>60423</t>
+          <t>54697</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>51259</t>
+          <t>48320</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>72756</t>
+          <t>60895</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>629</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>107689</t>
+          <t>105591</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>94649</t>
+          <t>96425</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>126565</t>
+          <t>113998</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>7,38%</t>
         </is>
       </c>
     </row>
@@ -5968,107 +5968,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>22891</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>16815</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>33330</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>26181</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>19500</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>34739</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>49072</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>38600</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>61744</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -6081,107 +6081,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1012</t>
+          <t>1288</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>413395</t>
+          <t>229329</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>392211</t>
+          <t>218125</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>433849</t>
+          <t>241054</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>61,14%</t>
+          <t>31,18%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>58,0%</t>
+          <t>29,66%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>64,16%</t>
+          <t>32,77%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1068</t>
+          <t>1353</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>431696</t>
+          <t>241113</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>411777</t>
+          <t>229798</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>451596</t>
+          <t>252499</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>57,03%</t>
+          <t>29,83%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>54,39%</t>
+          <t>28,43%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>59,65%</t>
+          <t>31,24%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>2080</t>
+          <t>2641</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>845091</t>
+          <t>470442</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>814006</t>
+          <t>455880</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>872306</t>
+          <t>487340</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>58,97%</t>
+          <t>30,47%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>56,8%</t>
+          <t>29,53%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>60,86%</t>
+          <t>31,57%</t>
         </is>
       </c>
     </row>
@@ -6194,107 +6194,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>2294</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>183304</t>
+          <t>422012</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>165926</t>
+          <t>409185</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>203042</t>
+          <t>433794</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>27,11%</t>
+          <t>57,38%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>24,54%</t>
+          <t>55,63%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>58,98%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>2591</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>223646</t>
+          <t>477024</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>206361</t>
+          <t>464439</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>242586</t>
+          <t>489166</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>29,54%</t>
+          <t>59,02%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>27,26%</t>
+          <t>57,46%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>32,04%</t>
+          <t>60,52%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>4885</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>406949</t>
+          <t>899035</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>380183</t>
+          <t>881525</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>432040</t>
+          <t>915690</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>28,39%</t>
+          <t>58,24%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>26,53%</t>
+          <t>57,1%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>30,15%</t>
+          <t>59,31%</t>
         </is>
       </c>
     </row>
@@ -6307,22 +6307,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1628</t>
+          <t>4077</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>676174</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>676174</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>676174</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6342,22 +6342,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>1865</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>757025</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>757025</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>757025</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6377,22 +6377,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>3493</t>
+          <t>8561</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1433199</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1433199</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1433199</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
